--- a/需求响应/data/Charging station.xlsx
+++ b/需求响应/data/Charging station.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA23A586-A49B-4DD0-B9A7-C910AAADE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD04FF-D975-466E-8715-C3E3168FB8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="3375" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12855" yWindow="2850" windowWidth="15660" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:AB4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>28</v>
